--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/55_Malatya_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/55_Malatya_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD571E5B-8A92-4E75-B070-A648595F9668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BA73652-93F7-4878-9A2A-446147A6DB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{20335417-1620-40FB-A09A-FF47333EAAD8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{E86CFB32-E272-4BAB-B138-BE34B87EF0AD}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -938,14 +938,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{11A15664-1801-4840-9BC3-C522A98FCAC3}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{15328813-8855-4A45-9BAB-370331F123A5}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{9E9D48AE-1DC3-48A7-84EF-0A1C6AF8EE0C}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{FAA6084D-237D-4B27-8094-3353F6F69794}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{57FD834A-533C-4EF5-A43C-65947A5AF739}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{4B78C5E6-65BE-4B7F-B7BC-92EF58D99670}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{0D73C28E-09BE-4493-87B4-278C8322EB95}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{8558B700-D73A-4FF2-B41A-2635485126C4}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{9A6A0DE1-3CE9-4C84-920B-ED2801CC6D7C}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E0918908-626D-4EDD-9D10-2676C381407F}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{D6CBF84E-6C4B-4DD2-A0FB-C5C77CEEC123}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{4D0EA8DE-B764-4461-B0E1-98A08629C272}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{3D6FE041-E93E-4450-B8D7-B685C02F0A64}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{D6210513-50F7-4A5D-B0B4-41D246EC081D}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{29F6A309-8BD6-46A6-999D-13CC4541AA3B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{F91A94F4-DB47-493E-A925-52F18E2BBC98}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590D334A-620B-41E9-AA7D-53A757E72E3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B17536-C080-4F23-8D68-04F28010E4FE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2550,18 +2550,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{63D9E7E3-F547-4FA0-B92C-628598F27540}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2F350A23-0747-44A9-9A40-E1AA015D5D82}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A05A1A46-DD5B-47FB-8116-268AE7C095A7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9B582FBD-DD74-4B68-B69C-1BD72C7B5A71}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{72451DB9-E903-49EF-9F8D-054337261CD1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BA5B653C-5FDB-49EB-940C-6BDEF025C292}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DAA44E19-1831-4122-AAA1-63400902C97B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4FF03DBC-290C-4EED-AB8A-40ECC27399C4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2AB6B43B-90EB-4D0E-B002-16A09F739161}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{601B99A4-837B-4919-922B-B31C3D19F2BC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AE2AF783-17DD-457E-A287-AB2DE32C7CA7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EB33B015-4371-4EA0-991C-14D9561C6C5A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB6FDB3E-1D77-4DB7-9783-FAD2353F6AC3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{23787286-2A50-4109-97B6-240F0BA1F109}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D609F79D-4D65-4F7E-BF17-BE969B0369A2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{93D39765-D0D9-421F-AF0E-F94F9F714BEA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{77959F5A-645D-4640-8736-5826EDEAD672}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{52809A35-47F2-4B97-8C95-5C4DD25DC071}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2F0E1BB0-6AFC-463A-9627-B8085D7A2FE0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{03104A7B-7810-4ED1-9D39-03696A8F04B6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8B7884CE-80A7-4539-9CB1-F73D733C0495}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C55933C2-6F8A-4499-9CC1-3A3C35D8A710}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{885C2449-DA57-47AC-A7A0-0AF4BAB576DE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A46E4D58-C00C-4259-A014-77A5656842F8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2574,7 +2574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAB9E0E-66A5-494F-800D-A70D6BE044C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620EFEBC-571D-4C09-81C3-2BB0DEFF9874}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3790,18 +3790,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9FEE4707-B709-41FA-A4CF-F9DE8089415A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{65DEDF30-F2AB-4D09-A706-DFB2DFDA15B6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D1E00A4A-21F1-4BC1-9205-3DA21D15FFCC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F2E3DF89-0661-4DC7-9F28-60F94497E5AD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BD62B48D-4BB5-4AA0-A04F-406273DD7319}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7D117C49-E33B-4132-91C9-2657FDF30175}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D5B28B02-F2AF-470C-B6C4-7EC186A0E7C1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F466B3A0-F497-474B-93A3-2D86CD08D576}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2DA3616F-F04F-4010-8904-AF7989E23D74}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2A1712BE-39A1-47B5-B938-7A1CD9118ABC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FE6B1165-D026-4FD4-B4C9-C6F26D9A72FE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C219A160-20AB-4612-BAEE-EC90D051CE7D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{66D58699-6D5A-48FF-B93A-EFBE4F6B470E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AE38BBCA-54C8-4675-86FD-704308DD7641}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2BA7D41E-B10B-4EE2-BE8E-01E0758FFB4B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{355DA1F4-1BCA-4206-9FB0-2A954E4AD853}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{10CBDB79-A436-474E-AC0E-F444CAECC945}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8C8D3A36-E92F-442E-A89A-8CB3AE6FF3DD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96C671CB-72C3-4554-A01B-28F0E1FAD62C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{098F7936-C75E-4C74-BC06-B2D9011FBD2F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5653D5A9-F924-48CE-AD6F-688A971C4263}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C8A2146B-42B0-4436-96DD-FC948CBF3BC0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5613E231-EEEF-45FD-B04D-E9407D602869}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6FF6D04A-7BA3-4897-9DFF-B0626F18F3B9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3814,7 +3814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38031AF-CF2A-464E-81FB-06114472206C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028321A7-B151-4FF5-818F-E8D10788D3BD}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5030,18 +5030,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DE2D5B1A-7736-4244-A1C4-82FC99C96F6A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{49FF2FE3-7ABF-47B6-8025-26986435A62C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8E8B3A21-3F9C-4885-879B-9513D2E8D3B1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0999C6C6-DA1E-4ECE-9194-76DD7519F9C8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B82A9EFA-F8FC-43DA-A8C5-C332A1CB2243}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C911D6BC-5B60-4DF7-B3B0-AC6EC5A95F0F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2523FEBE-0027-41E3-8F89-05A3FD9EA2CB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E7ADEA50-76C7-482B-B855-E762985A69B2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A4B21C5F-79E9-44E8-8A47-D68A1170B9D5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9FBC1935-845D-488D-B73E-308CD87DDD72}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF566EAA-459F-4FE1-973B-B37168C2CD55}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BB85B3FE-7B52-4E9D-B871-7AFDF478B9EE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F5505803-972E-4FD5-8444-005BCD1A4BBB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4B74560-1585-4E0F-ADCC-911CE2F41EDB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{99172D37-552C-43CE-800C-88F7B1CB990D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C4667923-CCA1-46D1-B0E1-61D33966DA25}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{31850D96-1853-46BE-88C3-7C7227CA19C4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DAD61D40-89E4-45AC-A1B6-2C3922E1A624}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4EFC8D7-B72D-4510-941A-E34FA5373EE2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{751A204D-C1A0-4616-AA78-02B233069058}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{33F468B7-0847-4CBF-8AE5-5BC683D1C44B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CDAC54EB-49DF-4621-9351-AE94CA68B020}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4324C5AE-CFD8-4089-B044-0BC192612A87}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7C986817-F903-4BC5-95C8-DB809E34B4DC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5054,7 +5054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B9D98F-9EC2-4A2A-A11A-48153AE2DF45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9062A409-DB4F-4F86-A390-86655E1687C0}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6262,18 +6262,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{80831045-E187-43CD-A290-89D6B0824487}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{55479F04-24FA-44A8-BE0E-E6A12F341A9A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4EB708D7-10AE-4DDF-817C-DDA56CD721ED}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DFC6B6CD-27F0-4B47-9ADA-0C570990DC11}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0B50B4A6-D3A9-4868-BFC8-644AD4C8EFA1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DF018F71-301A-432A-AD59-0AC33AEB1A65}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4467028F-E1D5-42D1-B09F-260D54761C33}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5FBA7AFF-D671-4EAF-82EA-86C343DD2438}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{00C8717B-5E60-4376-A02C-97B42C3F4F8E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7651365B-C468-4684-8387-089B9C3EA760}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EF91FDA4-9F1A-4544-87B4-5D4149647A02}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0F745369-6A86-40A9-9891-04E7CB2454E9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E5515918-EDD6-40A1-B019-1EF00230619E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C86A5429-D155-497B-9F28-6B9455DD67C1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4B83DCC8-22ED-46F9-83D6-625BC54893A1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A02BF0B3-27FE-4FF4-8018-98DEDCAED586}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{581AE9C4-3B24-494A-901A-14E44086DC3C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9249F099-65BD-4776-8662-88FE3C6478B7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{58AF7805-6000-4CED-BEB3-7BD9DA51D48D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F3A60186-8020-4BF6-8EC8-54C1BA44B20D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{764C66CD-7E11-4F8A-B0CB-F1D6AAED80B3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B881FD4E-4548-4085-B876-B0F80BD7BCC6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{00010C8F-8AAD-4E98-AC2C-C5D489B0A536}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FACB9611-80A0-4D66-8F73-C3977B91EB20}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6286,7 +6286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E06599C-B8F1-4F46-B6C7-C4A277D1F7FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D1EB4B-69B5-4B68-ACEC-59E7D0411FC8}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7517,18 +7517,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2DB126C5-3336-4368-9261-918B088284C8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0F1F1C3E-F67C-43B0-89C1-898A5EDA286A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7EFC7ED0-0236-4F20-BE07-0A63B0980C70}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{726549BA-D6A3-4196-AF98-75139527C5A5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{780D31C3-4BFB-4432-AF6B-4FD09423348F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A3B24D7C-94C1-4BBC-8E22-AD1B1CD0A7FC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1948841B-3DFD-436A-A14B-88E3A629948C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{14386E96-CEAD-48A3-9A6B-C5AF83072722}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D7DCD5B3-AF10-43E5-BB11-C874AFF8C33E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{174BB17D-C23A-41B8-9B75-D232CDD9CD40}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{666A5DB6-986E-4883-A507-C5D6AD2AEAEA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6D67CFF7-8F43-46B4-8E26-F5B89BC3D514}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B56FEA4-B4C8-452C-9076-B64D9C6E2164}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EFB557BE-8B5B-4805-A709-7239E57ED4F0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FEE5B142-F7A5-4450-B756-6CE49FB544C3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D06DA9E8-98E6-4153-8C0D-F7997B381959}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F4B761F7-07E2-492E-9417-361B91658DC0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{77AC2F51-EB4E-4A7B-88A5-EC7DF3804278}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D99DA8DE-299F-43B1-AB48-25691A5A01B1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2AE0396C-38B1-46B0-B5D8-EE2100E813B1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{166D5B50-E30F-47C8-BCF4-51F2DF20E968}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BDF6AC6C-425E-4D8B-8E0C-8DFA599D7E48}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{45D408BA-1AD8-43F7-9E3E-800048B1950B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FC18BB13-B9C2-4099-8616-007C8BDAE65A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7541,7 +7541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF8C1DE-43B3-4C19-9CB3-23EBC038C74B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A88C9E3-F421-413F-987F-A952AFCD894F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8768,18 +8768,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4D388E75-D2DC-45CC-B524-E05B27A3507D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1D8CBCBA-B12F-4855-AF6C-04DA31406F1F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E2C308BD-14D2-40BA-8190-6621347285FB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DE73B68B-73FD-4645-ADA1-ACC940C3CDD8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3CCFBFEE-DF78-4033-8645-D6EDA0C2ED0A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{03FFFAEB-CA11-4777-ACCE-234E9C2CED4A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AECE2AF8-D6A2-42E0-AD6E-42F574C563B0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{990FCEA2-9FAC-4D82-8474-DEB1F388E435}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{47ED87F5-7E2E-40D2-AC95-567D68E6B71A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{00ED9171-4D3D-4585-9769-CD3F2EC9E6A6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6427EA31-322E-4A6C-B6DD-9D3FC9670B5D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E5DA00AB-F665-4A48-9F28-51D129297325}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6CA3ABD9-122F-4EBE-80E9-E24F44CE090E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7E9FC7F4-B395-4E08-A576-678A026F5C9D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D9251B3B-172C-44F5-BAD2-2A131F63255D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1886D54E-4B3B-4CED-9E00-B505FBD6EA88}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1F4BCB6A-E020-42E8-98A3-536EFEC22246}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8C88D7EC-36CE-4B6A-B628-B58E7E34DA70}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2687786-FDEC-4189-9A51-4A3A2BCA0392}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E92C688C-99A6-46A3-B77D-4FA8B68B8998}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{61F94AA5-6336-4BBA-A9C3-C206830DE6BE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{447933FF-B179-47D5-8DEE-25CB45511192}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{45EB233A-319C-4822-B0B4-DB41315ACEBA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{44F591DD-4FC9-4087-9AFB-4239B8439802}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8792,7 +8792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4CC921-D6C9-4FC7-8255-D06B8973B8BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893BC2B1-7AF1-4D87-AD48-417E94D80A5B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10019,18 +10019,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{99DADAEA-9D8B-4F6E-900B-4CA5DC77CBE7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8017F2AA-09A2-46BB-980E-20B1CA547ECB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E1D7B2EC-B97B-4FA0-98B4-E0D34883D971}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{92155AE9-C914-4938-B296-F6BA7E3CC241}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4A34302B-40A9-4C09-93AC-0BDA2F5C3350}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{81C48DC5-321E-4C5B-86A2-EC14566079DF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{31D38BAB-94AD-450E-B2A8-26787E3A103F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B270F6B4-5FF0-45E7-B8C6-B089924626F9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3D4DA275-97BC-4538-9161-CC4EA94B140D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F4C4A9D2-B140-449F-A8E1-D3942BAEA638}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9D408F05-0352-4B89-91B7-967A034DC98E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F0C56832-6902-4032-BD5D-D5BE006F9DD0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4CA689E3-9DA9-4BAE-8883-B91FC9787E7D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{99EA4A50-4236-4D37-A385-BB02292BBC8F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ED769816-609E-47A4-9409-85966C8FFF5D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9196A449-AB4F-4AAC-BF40-5B747363AF6A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2C536DB0-BC25-4604-A245-72CBEC77FFFA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{05145F76-3322-4D90-A15E-3B458EA65091}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FD12B3F5-B071-4B13-BA8F-9DC68B356DBF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2FDA7D04-7712-4395-ACA6-065DBDB170B8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3BDBFE32-6072-4C7C-88EB-762744085ECD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{51E0CF4F-D8D0-4B9D-9F89-AD3CD2C4B18C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6A51C20C-D84B-44BD-A3D5-D7D7E6E2F114}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A5930F8-BFC9-498F-A0EA-6BD9B8F083CE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10043,7 +10043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469AB860-E4F9-40B8-A4B4-84932A8FEF05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE825826-D3AB-446A-99E9-F2A5FA30B44E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11270,18 +11270,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3C7D5744-4E6A-4328-8145-02A05E8C0E40}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EED6102F-8AAA-427A-B432-1C85DD0FAA8C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{676E075D-B30A-454F-B762-8457F7BB6DDF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8D903490-E09C-499C-8962-C03A8602BBB7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{97C28A13-2785-40CD-99F0-A680A2FA1EED}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6F2B4701-0DB2-4FB6-84E5-0572BD0164F0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5121AA4B-8962-4EDF-AC28-A052AA9CC797}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ECB32BBC-013B-4991-81F5-0F110858962B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7D6F3137-4D00-4DC5-942C-57EB408CC236}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C322037C-4473-454A-97EE-8103CA2EF7A4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF392E00-C371-4415-83C6-363979F645E2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{08630321-7134-4438-AD77-EA56B2B7E825}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{03407602-DB44-4DF5-8260-1071CABA2751}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7AB22954-8AF6-4BE9-8789-FD81C0C00F8B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A1350210-37C5-4944-977F-F41BEF57FEFE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4550E276-0B5E-4571-8E5B-FA926EB6FBF5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{443B6297-154F-4A65-8CFA-B81603B75BE5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{96F6F2C2-56D3-43E6-B432-DC86590463C1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C4BA48C2-0C7D-4988-B5D2-4643D73931DE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4361530D-5FAF-4E6B-B330-1AFC747D1C20}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8041D118-AFFE-4D45-9C56-157816B6854F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{69AE92E3-42D9-4BF6-AF69-F6031683AB0F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FE3BFF7C-8130-491B-B828-B013F818CE51}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2CF6324A-BAB2-4107-A36E-8300382509E2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11294,7 +11294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09679C36-F4BD-4E56-96DE-7F9FFEA7E068}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88002681-AF18-431C-A282-4EC15EAF104D}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12513,18 +12513,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5098D416-67EF-42CE-ACE1-80A6F4B54A47}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A288F7C6-A736-427B-A130-2696CD7F09A5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1EFCF633-2827-4D78-AD54-28F0F3CB9142}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{43262337-CAD6-4B85-A6CE-55535BA72CDB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0DB1DAC2-F167-47A6-867F-6CF7065258D5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{47547063-3121-4FE9-BBD3-3EF8C0A6EC10}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{243320FD-B3B2-492A-83BF-F37214E2F4EF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9BD42EA8-E6E4-4B9C-8292-C8B6A3DD03D7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B164FD4C-0452-41E9-8C2F-124D82BB8BF4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5A4272D1-2FF9-4065-80D7-67C343F5313D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1B9187A7-3753-4BE8-ACD0-D1D3ED42DF11}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{78528474-21F1-4AB2-8BFD-ECC952786679}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FF3F3CF0-D21C-4D5D-A5E2-B8D82494FD1E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{25A0E84E-DC9C-494E-8035-CDB71215416E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BB3A3AED-A40F-464C-8894-1AFC42D86A95}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5721893D-E712-4E68-8F00-05B2A8C31F12}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2EFBE13D-9AD2-48A3-8DDD-DD54A345C98A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AA594478-B229-4A26-AC40-367AA888166B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3F5C6EFC-2170-4908-8F2E-3C2E50C7F197}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FD36B7A0-5811-46B5-9DC7-1EECD06351ED}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3D5DD8CC-2AEC-40A8-B071-4A37100740AD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7907215B-D49D-4D28-8636-64E249F00A93}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8D976A73-1430-41C1-8CFE-37A8FDBF01B4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D2CFA53A-9135-4F2D-9176-64B046AA1AAF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12537,7 +12537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE49A0A1-4F22-4BF6-A8E2-8768039C8C2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8439C7-CEDE-4DE5-8E05-984DC6566C18}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13757,18 +13757,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C5BCE13B-AC4C-4361-9B2E-C4DEECF4A556}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C20387A9-7FA8-4C6B-8DE5-C5A8E6B53CD2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8A13D0F6-02B1-45AD-BEBD-74974ABC7A0F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{823E28DB-4245-4CCA-9E3D-BBFB09207808}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B2A90882-C3F8-4CF5-8815-572B113835E7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9A7C1F28-61DB-4B11-B8E2-04EA0973F4C3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{42FC27CC-999E-46B1-B54B-ECA6348B4195}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{083A98C2-ABD2-439F-9CE9-20D3A50509F0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BC260B53-F4E9-4A63-909F-F28A4EAECDEF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{36EC9E1A-3C16-4D21-8298-F0B0BEB1A9A4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DC032AAB-C688-49BE-8FBA-53674CB08348}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A940A3A2-CF7D-47E8-A0AE-4639FE8F50FB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E87E347-8281-4CE7-B742-FBCAE660DF1E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F819B078-99C8-49DA-A9DB-D9AA5C057F49}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7FFB2A0D-5914-4F51-96C6-C0CBFED7DEE2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A25B6875-520A-48AD-9499-76FB634BCE24}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6E5A9361-FD5D-4E30-BE15-B0F8BD6FB948}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A99EDC50-64D8-4D23-AFE8-FA6CCF542899}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A79CCC7A-6BF7-43A7-AD04-10F90CBB897E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6211F112-A1AA-4CBA-A47D-A89D52768837}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{80692AB2-C5C6-4BFF-B1FA-6AA5ECFABF97}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F1A285FC-85B8-4BD1-8FC4-0D545D73036A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CE6A6BC8-E9F1-45F0-85BD-2B65935E4FD0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4538A0DB-FBDF-48B9-AFB9-D27337B9F9D5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13781,7 +13781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF878320-F9FD-4C6A-82E4-51180DA5C190}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F95C6FC-30FC-4044-8526-E381CC12B7E5}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14997,18 +14997,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4D721E83-A4CA-4429-9D6F-1382B7ADE80B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77EEB30C-C648-4AE4-891A-C61F70BEF95B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E53A969A-7638-47A6-960A-644B12B9DBE9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8EC98190-F9DC-4D64-ACF6-6DBE20B154D1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{425E359F-1641-45AE-BD70-5A1715E61923}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BBAFEF18-51FC-4F20-BF27-553E86CEFF38}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{358952FF-91EC-4C14-8528-E31912BB1ABC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A5296607-A100-4795-9718-90D9A695E041}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FFC1D984-FC69-43E1-B57C-9FEC96456CA2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1D157964-74D6-456F-B9FA-02DB837C563A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F4CB6A03-A3F9-472D-9158-5E6D7AA07DC0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A3A122A4-DC56-43F9-BB9D-36867D8F17F9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1F45DAA9-1C02-4CEF-8F13-77D578EB06BF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{80DC08EB-A95D-4360-858A-FFDC50308A58}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D4480337-1650-4003-A9D2-7DEEFE25EA85}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6023E873-871C-44A5-887B-BE2ECEBBB1C2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2DEDCB9B-5561-46BA-B542-A42B822449E9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FB37FD2F-5DE9-49E8-AA82-A5B2DC65BCBD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{70EFE489-98FB-469B-B3DC-C3F78E4F65D1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{86EBDF0C-3CF7-464A-B77C-11D0D5494980}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{959C7F09-9E3A-4042-BE41-CE2FE5EEA79E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D74E2A9A-E8DF-4C40-B213-14537FD835E9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4250067B-EA77-42C4-8244-337C97432427}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0177C8FF-AFEC-4441-A1D7-B64E17B3529C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15021,7 +15021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6364848D-B13E-4A8A-868A-62CD93667CF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF77208A-8F4A-497E-8D0C-779D1732F250}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16237,18 +16237,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{796AD7D7-6B38-49B1-83E4-1000582CA74F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DAB50BC2-F72C-4F99-8EF4-753AC983247F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8B2949AE-CECE-4526-9DE0-7328DB8F4EF8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F5DA2CC2-2468-4149-AC8A-36F1B52AF910}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D468EA25-1E49-4D1A-8FA1-96ED8FA3AC9B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FB04A6CF-62BD-453B-A865-1BF19FBD75E4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{03F2F70C-5A13-4F6A-A54B-C3FA0026C93B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3D8A16F8-5B99-4D0E-B4B1-A161AE43FB1D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F0863189-C3DD-4BBE-B14E-2133F753E641}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7750B09D-6665-4B0D-8705-A39492684D30}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{69852379-CF02-4143-8D90-D9849CB8FA10}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{947F9F84-D3E6-4F4B-AEC6-04F956216D6D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7638ABF0-5FB4-4762-812A-61327931E2C7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4977452B-7634-420C-A5E3-46BFB64609BB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D0BC4572-9B3F-4F73-BFA3-E66B5CCFC9C2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5915DB1D-8A6D-41CB-BA91-9D6EB8BCC8E5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{771A92E6-B5B0-4CAE-95A8-EEF06D643A74}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DBB55EB4-47FC-4105-A3CB-3CFCB3A8998F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AE8DFCDE-41CF-4A75-B268-3DF08A7C853E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FA418700-0AA7-4AD8-994F-C75A01A4220B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{561BD97E-1B94-4E73-80B8-183906C13B22}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{059A1C02-BEDB-4405-854D-E6651B03FC23}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EC1F4B74-09BB-4F26-85B5-BA78814C2548}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{33E7A0E7-33C3-496B-8C2B-014CE5EF1F94}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
